--- a/UTS_GASAL_V3922034_MUHAMMAD RAFI NAUFAL PRATAMA/UTS_V3922034_MUHAMMAD-RAFI-NAUFAL-PRATAMA.xlsx
+++ b/UTS_GASAL_V3922034_MUHAMMAD RAFI NAUFAL PRATAMA/UTS_V3922034_MUHAMMAD-RAFI-NAUFAL-PRATAMA.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Enkripsi" sheetId="1" r:id="rId1"/>
+    <sheet name="Dekripsi" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1000" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1268" uniqueCount="46">
   <si>
     <t>A</t>
   </si>
@@ -158,6 +158,15 @@
       </rPr>
       <t>XIVYJGLEXBHPKWGWQTTEQIKANGGKYTTPFZBPNGMDJQHQWOZAYCVKSHBJZSMDFHVKZBMO</t>
     </r>
+  </si>
+  <si>
+    <t>Muhammad Rafi Naufal Pratama</t>
+  </si>
+  <si>
+    <t>Vignere Chiper</t>
+  </si>
+  <si>
+    <t>Caesar Chipper</t>
   </si>
 </sst>
 </file>
@@ -348,9 +357,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -366,9 +372,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -394,9 +397,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -413,6 +413,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -718,8 +727,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BS53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="AA54" sqref="AA54"/>
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -945,2337 +954,2342 @@
         <v>39</v>
       </c>
     </row>
+    <row r="13" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>44</v>
+      </c>
+    </row>
     <row r="14" spans="2:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
-      <c r="O14" s="4"/>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="4"/>
-      <c r="R14" s="4"/>
-      <c r="S14" s="4"/>
-      <c r="T14" s="4"/>
-      <c r="U14" s="4"/>
-      <c r="V14" s="4"/>
-      <c r="W14" s="4"/>
-      <c r="X14" s="4"/>
-      <c r="Y14" s="4"/>
-      <c r="Z14" s="4"/>
-      <c r="AA14" s="4"/>
-      <c r="AB14" s="4"/>
-      <c r="AC14" s="4"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="24"/>
+      <c r="J14" s="24"/>
+      <c r="K14" s="24"/>
+      <c r="L14" s="24"/>
+      <c r="M14" s="24"/>
+      <c r="N14" s="24"/>
+      <c r="O14" s="24"/>
+      <c r="P14" s="24"/>
+      <c r="Q14" s="24"/>
+      <c r="R14" s="24"/>
+      <c r="S14" s="24"/>
+      <c r="T14" s="24"/>
+      <c r="U14" s="24"/>
+      <c r="V14" s="24"/>
+      <c r="W14" s="24"/>
+      <c r="X14" s="24"/>
+      <c r="Y14" s="24"/>
+      <c r="Z14" s="24"/>
+      <c r="AA14" s="24"/>
+      <c r="AB14" s="24"/>
+      <c r="AC14" s="24"/>
     </row>
     <row r="15" spans="2:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="1"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="F15" s="7" t="s">
+      <c r="C15" s="4"/>
+      <c r="D15" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F15" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="G15" s="8" t="s">
+      <c r="G15" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H15" s="8" t="s">
+      <c r="H15" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="I15" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="J15" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="K15" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="M15" s="7" t="s">
+      <c r="I15" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="L15" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="M15" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="N15" s="7" t="s">
+      <c r="N15" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="O15" s="7" t="s">
+      <c r="O15" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="P15" s="7" t="s">
+      <c r="P15" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="Q15" s="7" t="s">
+      <c r="Q15" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="R15" s="7" t="s">
+      <c r="R15" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="S15" s="7" t="s">
+      <c r="S15" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="T15" s="7" t="s">
+      <c r="T15" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="U15" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="V15" s="7" t="s">
+      <c r="U15" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="V15" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="W15" s="9" t="s">
+      <c r="W15" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="X15" s="7" t="s">
+      <c r="X15" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="Y15" s="7" t="s">
+      <c r="Y15" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="Z15" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="AA15" s="7" t="s">
+      <c r="Z15" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA15" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="AB15" s="7" t="s">
+      <c r="AB15" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="AC15" s="10" t="s">
+      <c r="AC15" s="9" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="16" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="D16" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="E16" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="F16" s="15" t="s">
+      <c r="C16" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D16" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F16" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="G16" s="14" t="s">
+      <c r="G16" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="H16" s="14" t="s">
+      <c r="H16" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="I16" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="J16" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="K16" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="L16" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="M16" s="13" t="s">
+      <c r="I16" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="J16" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="K16" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="L16" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="M16" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="N16" s="13" t="s">
+      <c r="N16" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="O16" s="13" t="s">
+      <c r="O16" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="P16" s="13" t="s">
+      <c r="P16" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="Q16" s="13" t="s">
+      <c r="Q16" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="R16" s="15" t="s">
+      <c r="R16" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="S16" s="13" t="s">
+      <c r="S16" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="T16" s="15" t="s">
+      <c r="T16" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="U16" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="V16" s="15" t="s">
+      <c r="U16" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="V16" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="W16" s="15" t="s">
+      <c r="W16" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="X16" s="13" t="s">
+      <c r="X16" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="Y16" s="13" t="s">
+      <c r="Y16" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="Z16" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="AA16" s="13" t="s">
+      <c r="Z16" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA16" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="AB16" s="13" t="s">
+      <c r="AB16" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="AC16" s="14" t="s">
+      <c r="AC16" s="12" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="17" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B17" s="11"/>
-      <c r="C17" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="D17" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="E17" s="13" t="s">
+      <c r="B17" s="25"/>
+      <c r="C17" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E17" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="F17" s="14" t="s">
+      <c r="F17" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="G17" s="14" t="s">
+      <c r="G17" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="H17" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="I17" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="J17" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="K17" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="L17" s="13" t="s">
+      <c r="H17" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="I17" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J17" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="K17" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="L17" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="M17" s="13" t="s">
+      <c r="M17" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="N17" s="13" t="s">
+      <c r="N17" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="O17" s="13" t="s">
+      <c r="O17" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="P17" s="13" t="s">
+      <c r="P17" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="Q17" s="13" t="s">
+      <c r="Q17" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="R17" s="13" t="s">
+      <c r="R17" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="S17" s="13" t="s">
+      <c r="S17" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="T17" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="U17" s="13" t="s">
+      <c r="T17" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="U17" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="V17" s="13" t="s">
+      <c r="V17" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="W17" s="13" t="s">
+      <c r="W17" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="X17" s="13" t="s">
+      <c r="X17" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="Y17" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="Z17" s="13" t="s">
+      <c r="Y17" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z17" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="AA17" s="13" t="s">
+      <c r="AA17" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="AB17" s="14" t="s">
+      <c r="AB17" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="AC17" s="13" t="s">
+      <c r="AC17" s="11" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B18" s="11"/>
-      <c r="C18" s="16" t="s">
+      <c r="B18" s="25"/>
+      <c r="C18" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D18" s="13" t="s">
+      <c r="D18" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="E18" s="14" t="s">
+      <c r="E18" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="F18" s="14" t="s">
+      <c r="F18" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="G18" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="H18" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="I18" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="J18" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="K18" s="13" t="s">
+      <c r="G18" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="H18" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="I18" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="J18" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="K18" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="L18" s="13" t="s">
+      <c r="L18" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="M18" s="13" t="s">
+      <c r="M18" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="N18" s="13" t="s">
+      <c r="N18" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="O18" s="13" t="s">
+      <c r="O18" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="P18" s="13" t="s">
+      <c r="P18" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="Q18" s="13" t="s">
+      <c r="Q18" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="R18" s="13" t="s">
+      <c r="R18" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="S18" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="T18" s="13" t="s">
+      <c r="S18" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="T18" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="U18" s="13" t="s">
+      <c r="U18" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="V18" s="13" t="s">
+      <c r="V18" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="W18" s="13" t="s">
+      <c r="W18" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="X18" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y18" s="13" t="s">
+      <c r="X18" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y18" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="Z18" s="13" t="s">
+      <c r="Z18" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="AA18" s="14" t="s">
+      <c r="AA18" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="AB18" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC18" s="17" t="s">
+      <c r="AB18" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC18" s="15" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B19" s="11"/>
-      <c r="C19" s="16" t="s">
+      <c r="B19" s="25"/>
+      <c r="C19" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="D19" s="14" t="s">
+      <c r="D19" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E19" s="14" t="s">
+      <c r="E19" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F19" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="G19" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="H19" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="I19" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="J19" s="13" t="s">
+      <c r="F19" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H19" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="I19" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="J19" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="K19" s="13" t="s">
+      <c r="K19" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="L19" s="13" t="s">
+      <c r="L19" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="M19" s="13" t="s">
+      <c r="M19" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="N19" s="13" t="s">
+      <c r="N19" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="O19" s="13" t="s">
+      <c r="O19" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="P19" s="13" t="s">
+      <c r="P19" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="Q19" s="13" t="s">
+      <c r="Q19" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="R19" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="S19" s="13" t="s">
+      <c r="R19" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="S19" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="T19" s="13" t="s">
+      <c r="T19" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="U19" s="13" t="s">
+      <c r="U19" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="V19" s="13" t="s">
+      <c r="V19" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="W19" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="X19" s="13" t="s">
+      <c r="W19" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="X19" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="Y19" s="13" t="s">
+      <c r="Y19" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="Z19" s="14" t="s">
+      <c r="Z19" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="AA19" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB19" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC19" s="17" t="s">
+      <c r="AA19" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB19" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC19" s="15" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="20" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B20" s="11"/>
-      <c r="C20" s="16" t="s">
+      <c r="B20" s="25"/>
+      <c r="C20" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="D20" s="14" t="s">
+      <c r="D20" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="E20" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="F20" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="G20" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="H20" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="I20" s="13" t="s">
+      <c r="E20" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="G20" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="H20" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="I20" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="J20" s="13" t="s">
+      <c r="J20" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="K20" s="13" t="s">
+      <c r="K20" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="L20" s="13" t="s">
+      <c r="L20" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="M20" s="13" t="s">
+      <c r="M20" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="N20" s="13" t="s">
+      <c r="N20" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="O20" s="13" t="s">
+      <c r="O20" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="P20" s="13" t="s">
+      <c r="P20" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="Q20" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="R20" s="13" t="s">
+      <c r="Q20" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="R20" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="S20" s="13" t="s">
+      <c r="S20" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="T20" s="13" t="s">
+      <c r="T20" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="U20" s="13" t="s">
+      <c r="U20" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="V20" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="W20" s="13" t="s">
+      <c r="V20" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="W20" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="X20" s="13" t="s">
+      <c r="X20" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="Y20" s="14" t="s">
+      <c r="Y20" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="Z20" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA20" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="AB20" s="13" t="s">
+      <c r="Z20" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB20" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="AC20" s="17" t="s">
+      <c r="AC20" s="15" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="21" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B21" s="11"/>
-      <c r="C21" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="D21" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="E21" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="F21" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="G21" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="H21" s="13" t="s">
+      <c r="B21" s="25"/>
+      <c r="C21" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E21" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F21" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="G21" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="H21" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="I21" s="15" t="s">
+      <c r="I21" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="J21" s="15" t="s">
+      <c r="J21" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="K21" s="15" t="s">
+      <c r="K21" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="L21" s="13" t="s">
+      <c r="L21" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="M21" s="13" t="s">
+      <c r="M21" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="N21" s="13" t="s">
+      <c r="N21" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="O21" s="13" t="s">
+      <c r="O21" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="P21" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q21" s="13" t="s">
+      <c r="P21" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q21" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="R21" s="15" t="s">
+      <c r="R21" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="S21" s="13" t="s">
+      <c r="S21" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="T21" s="15" t="s">
+      <c r="T21" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="U21" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="V21" s="13" t="s">
+      <c r="U21" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="V21" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="W21" s="13" t="s">
+      <c r="W21" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="X21" s="18" t="s">
+      <c r="X21" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="Y21" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z21" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="AA21" s="13" t="s">
+      <c r="Y21" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA21" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="AB21" s="14" t="s">
+      <c r="AB21" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="AC21" s="17" t="s">
+      <c r="AC21" s="15" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="22" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B22" s="11"/>
-      <c r="C22" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="D22" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="E22" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="F22" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="G22" s="13" t="s">
+      <c r="B22" s="25"/>
+      <c r="C22" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="G22" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="H22" s="13" t="s">
+      <c r="H22" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="I22" s="13" t="s">
+      <c r="I22" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="J22" s="13" t="s">
+      <c r="J22" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="K22" s="13" t="s">
+      <c r="K22" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="L22" s="13" t="s">
+      <c r="L22" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="M22" s="13" t="s">
+      <c r="M22" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="N22" s="13" t="s">
+      <c r="N22" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="O22" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="P22" s="13" t="s">
+      <c r="O22" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="P22" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="Q22" s="13" t="s">
+      <c r="Q22" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="R22" s="13" t="s">
+      <c r="R22" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="S22" s="13" t="s">
+      <c r="S22" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="T22" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="U22" s="13" t="s">
+      <c r="T22" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="U22" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="V22" s="13" t="s">
+      <c r="V22" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="W22" s="14" t="s">
+      <c r="W22" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="X22" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y22" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="Z22" s="13" t="s">
+      <c r="X22" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z22" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="AA22" s="14" t="s">
+      <c r="AA22" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="AB22" s="14" t="s">
+      <c r="AB22" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="AC22" s="17" t="s">
+      <c r="AC22" s="15" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="23" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B23" s="11"/>
-      <c r="C23" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="D23" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="E23" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="F23" s="13" t="s">
+      <c r="B23" s="25"/>
+      <c r="C23" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F23" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="G23" s="13" t="s">
+      <c r="G23" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="H23" s="13" t="s">
+      <c r="H23" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="I23" s="13" t="s">
+      <c r="I23" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="J23" s="13" t="s">
+      <c r="J23" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="K23" s="13" t="s">
+      <c r="K23" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="L23" s="13" t="s">
+      <c r="L23" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="M23" s="13" t="s">
+      <c r="M23" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="N23" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="O23" s="13" t="s">
+      <c r="N23" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="O23" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="P23" s="13" t="s">
+      <c r="P23" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q23" s="13" t="s">
+      <c r="Q23" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="R23" s="13" t="s">
+      <c r="R23" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="S23" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="T23" s="13" t="s">
+      <c r="S23" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="T23" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="U23" s="13" t="s">
+      <c r="U23" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="V23" s="14" t="s">
+      <c r="V23" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="W23" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="X23" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y23" s="13" t="s">
+      <c r="W23" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="X23" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y23" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="Z23" s="14" t="s">
+      <c r="Z23" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="AA23" s="14" t="s">
+      <c r="AA23" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="AB23" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC23" s="17" t="s">
+      <c r="AB23" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC23" s="15" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="24" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B24" s="11"/>
-      <c r="C24" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="D24" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E24" s="15" t="s">
+      <c r="B24" s="25"/>
+      <c r="C24" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="F24" s="15" t="s">
+      <c r="F24" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="G24" s="13" t="s">
+      <c r="G24" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="H24" s="13" t="s">
+      <c r="H24" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="I24" s="13" t="s">
+      <c r="I24" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="J24" s="15" t="s">
+      <c r="J24" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="K24" s="15" t="s">
+      <c r="K24" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="L24" s="15" t="s">
+      <c r="L24" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="M24" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="N24" s="13" t="s">
+      <c r="M24" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N24" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="O24" s="13" t="s">
+      <c r="O24" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="P24" s="13" t="s">
+      <c r="P24" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="Q24" s="13" t="s">
+      <c r="Q24" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="R24" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="S24" s="13" t="s">
+      <c r="R24" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="S24" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="T24" s="15" t="s">
+      <c r="T24" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="U24" s="14" t="s">
+      <c r="U24" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="V24" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="W24" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="X24" s="13" t="s">
+      <c r="V24" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="W24" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="X24" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="Y24" s="18" t="s">
+      <c r="Y24" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="Z24" s="18" t="s">
+      <c r="Z24" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="AA24" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB24" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="AC24" s="17" t="s">
+      <c r="AA24" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB24" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC24" s="15" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="25" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B25" s="11"/>
-      <c r="C25" s="16" t="s">
+      <c r="B25" s="25"/>
+      <c r="C25" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D25" s="13" t="s">
+      <c r="D25" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E25" s="13" t="s">
+      <c r="E25" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="F25" s="13" t="s">
+      <c r="F25" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="G25" s="13" t="s">
+      <c r="G25" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="H25" s="13" t="s">
+      <c r="H25" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="I25" s="13" t="s">
+      <c r="I25" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="J25" s="13" t="s">
+      <c r="J25" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="K25" s="13" t="s">
+      <c r="K25" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="L25" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="M25" s="13" t="s">
+      <c r="L25" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M25" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="N25" s="13" t="s">
+      <c r="N25" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="O25" s="13" t="s">
+      <c r="O25" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="P25" s="13" t="s">
+      <c r="P25" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="Q25" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="R25" s="13" t="s">
+      <c r="Q25" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="R25" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="S25" s="13" t="s">
+      <c r="S25" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="T25" s="14" t="s">
+      <c r="T25" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="U25" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="V25" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="W25" s="13" t="s">
+      <c r="U25" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="V25" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="W25" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="X25" s="14" t="s">
+      <c r="X25" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="Y25" s="14" t="s">
+      <c r="Y25" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="Z25" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA25" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="AB25" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="AC25" s="17" t="s">
+      <c r="Z25" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA25" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB25" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC25" s="15" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="26" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B26" s="11"/>
-      <c r="C26" s="16" t="s">
+      <c r="B26" s="25"/>
+      <c r="C26" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D26" s="13" t="s">
+      <c r="D26" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E26" s="13" t="s">
+      <c r="E26" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="F26" s="13" t="s">
+      <c r="F26" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G26" s="13" t="s">
+      <c r="G26" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="H26" s="13" t="s">
+      <c r="H26" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="I26" s="13" t="s">
+      <c r="I26" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="J26" s="13" t="s">
+      <c r="J26" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="K26" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="L26" s="13" t="s">
+      <c r="K26" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L26" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="M26" s="13" t="s">
+      <c r="M26" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="N26" s="13" t="s">
+      <c r="N26" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="O26" s="13" t="s">
+      <c r="O26" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="P26" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q26" s="13" t="s">
+      <c r="P26" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q26" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="R26" s="13" t="s">
+      <c r="R26" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="S26" s="14" t="s">
+      <c r="S26" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="T26" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="U26" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="V26" s="13" t="s">
+      <c r="T26" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="U26" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="V26" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="W26" s="14" t="s">
+      <c r="W26" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="X26" s="14" t="s">
+      <c r="X26" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="Y26" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z26" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="AA26" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="AB26" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="AC26" s="17" t="s">
+      <c r="Y26" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z26" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA26" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB26" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC26" s="15" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="27" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B27" s="11"/>
-      <c r="C27" s="16" t="s">
+      <c r="B27" s="25"/>
+      <c r="C27" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="D27" s="13" t="s">
+      <c r="D27" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E27" s="13" t="s">
+      <c r="E27" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F27" s="13" t="s">
+      <c r="F27" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G27" s="13" t="s">
+      <c r="G27" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="H27" s="13" t="s">
+      <c r="H27" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="I27" s="13" t="s">
+      <c r="I27" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="J27" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="K27" s="13" t="s">
+      <c r="J27" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K27" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="L27" s="13" t="s">
+      <c r="L27" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="M27" s="13" t="s">
+      <c r="M27" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="N27" s="13" t="s">
+      <c r="N27" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="O27" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="P27" s="13" t="s">
+      <c r="O27" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="P27" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="Q27" s="13" t="s">
+      <c r="Q27" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="R27" s="14" t="s">
+      <c r="R27" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="S27" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="T27" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="U27" s="13" t="s">
+      <c r="S27" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="T27" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="U27" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="V27" s="14" t="s">
+      <c r="V27" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="W27" s="14" t="s">
+      <c r="W27" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="X27" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y27" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="Z27" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA27" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="AB27" s="13" t="s">
+      <c r="X27" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y27" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z27" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA27" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB27" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="AC27" s="17" t="s">
+      <c r="AC27" s="15" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="28" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B28" s="11"/>
-      <c r="C28" s="16" t="s">
+      <c r="B28" s="25"/>
+      <c r="C28" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D28" s="13" t="s">
+      <c r="D28" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E28" s="13" t="s">
+      <c r="E28" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F28" s="13" t="s">
+      <c r="F28" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G28" s="13" t="s">
+      <c r="G28" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H28" s="13" t="s">
+      <c r="H28" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="I28" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="J28" s="13" t="s">
+      <c r="I28" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J28" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="K28" s="13" t="s">
+      <c r="K28" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="L28" s="13" t="s">
+      <c r="L28" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="M28" s="13" t="s">
+      <c r="M28" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="N28" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="O28" s="13" t="s">
+      <c r="N28" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="O28" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="P28" s="13" t="s">
+      <c r="P28" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="Q28" s="14" t="s">
+      <c r="Q28" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="R28" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="S28" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="T28" s="13" t="s">
+      <c r="R28" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="S28" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="T28" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="U28" s="14" t="s">
+      <c r="U28" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="V28" s="14" t="s">
+      <c r="V28" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="W28" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="X28" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="Y28" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z28" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="AA28" s="13" t="s">
+      <c r="W28" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="X28" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y28" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z28" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA28" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="AB28" s="13" t="s">
+      <c r="AB28" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="AC28" s="17" t="s">
+      <c r="AC28" s="15" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="29" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B29" s="11"/>
-      <c r="C29" s="16" t="s">
+      <c r="B29" s="25"/>
+      <c r="C29" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="D29" s="13" t="s">
+      <c r="D29" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E29" s="13" t="s">
+      <c r="E29" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="F29" s="13" t="s">
+      <c r="F29" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G29" s="13" t="s">
+      <c r="G29" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="H29" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="I29" s="13" t="s">
+      <c r="H29" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I29" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="J29" s="13" t="s">
+      <c r="J29" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="K29" s="13" t="s">
+      <c r="K29" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="L29" s="13" t="s">
+      <c r="L29" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="M29" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="N29" s="13" t="s">
+      <c r="M29" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="N29" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="O29" s="13" t="s">
+      <c r="O29" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="P29" s="14" t="s">
+      <c r="P29" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="Q29" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="R29" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="S29" s="13" t="s">
+      <c r="Q29" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="R29" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="S29" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="T29" s="14" t="s">
+      <c r="T29" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="U29" s="14" t="s">
+      <c r="U29" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="V29" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="W29" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="X29" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y29" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z29" s="13" t="s">
+      <c r="V29" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="W29" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="X29" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y29" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z29" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="AA29" s="13" t="s">
+      <c r="AA29" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="AB29" s="13" t="s">
+      <c r="AB29" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="AC29" s="17" t="s">
+      <c r="AC29" s="15" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="30" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B30" s="11"/>
-      <c r="C30" s="16" t="s">
+      <c r="B30" s="25"/>
+      <c r="C30" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D30" s="13" t="s">
+      <c r="D30" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="E30" s="13" t="s">
+      <c r="E30" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F30" s="13" t="s">
+      <c r="F30" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="G30" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="H30" s="13" t="s">
+      <c r="G30" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H30" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="I30" s="13" t="s">
+      <c r="I30" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="J30" s="13" t="s">
+      <c r="J30" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="K30" s="13" t="s">
+      <c r="K30" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="L30" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="M30" s="13" t="s">
+      <c r="L30" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="M30" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="N30" s="13" t="s">
+      <c r="N30" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="O30" s="14" t="s">
+      <c r="O30" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="P30" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q30" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="R30" s="13" t="s">
+      <c r="P30" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="R30" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="S30" s="14" t="s">
+      <c r="S30" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="T30" s="14" t="s">
+      <c r="T30" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="U30" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="V30" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="W30" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="X30" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y30" s="13" t="s">
+      <c r="U30" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="V30" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="W30" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="X30" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y30" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="Z30" s="13" t="s">
+      <c r="Z30" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="AA30" s="13" t="s">
+      <c r="AA30" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="AB30" s="13" t="s">
+      <c r="AB30" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="AC30" s="17" t="s">
+      <c r="AC30" s="15" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="31" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B31" s="11"/>
-      <c r="C31" s="16" t="s">
+      <c r="B31" s="25"/>
+      <c r="C31" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D31" s="13" t="s">
+      <c r="D31" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E31" s="13" t="s">
+      <c r="E31" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="F31" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="G31" s="13" t="s">
+      <c r="F31" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G31" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H31" s="13" t="s">
+      <c r="H31" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="I31" s="13" t="s">
+      <c r="I31" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="J31" s="13" t="s">
+      <c r="J31" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="K31" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="L31" s="13" t="s">
+      <c r="K31" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="L31" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="M31" s="13" t="s">
+      <c r="M31" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="N31" s="14" t="s">
+      <c r="N31" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="O31" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="P31" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q31" s="13" t="s">
+      <c r="O31" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="P31" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q31" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="R31" s="14" t="s">
+      <c r="R31" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="S31" s="14" t="s">
+      <c r="S31" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="T31" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="U31" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="V31" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="W31" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="X31" s="13" t="s">
+      <c r="T31" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="U31" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="V31" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="W31" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="X31" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="Y31" s="13" t="s">
+      <c r="Y31" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="Z31" s="13" t="s">
+      <c r="Z31" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="AA31" s="13" t="s">
+      <c r="AA31" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="AB31" s="13" t="s">
+      <c r="AB31" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="AC31" s="17" t="s">
+      <c r="AC31" s="15" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="32" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B32" s="11"/>
-      <c r="C32" s="16" t="s">
+      <c r="B32" s="25"/>
+      <c r="C32" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D32" s="13" t="s">
+      <c r="D32" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E32" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="F32" s="13" t="s">
+      <c r="E32" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F32" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="G32" s="13" t="s">
+      <c r="G32" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="H32" s="13" t="s">
+      <c r="H32" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="I32" s="13" t="s">
+      <c r="I32" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="J32" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="K32" s="13" t="s">
+      <c r="J32" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="K32" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="L32" s="13" t="s">
+      <c r="L32" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="M32" s="14" t="s">
+      <c r="M32" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="N32" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="O32" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="P32" s="13" t="s">
+      <c r="N32" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="O32" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="P32" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="Q32" s="14" t="s">
+      <c r="Q32" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="R32" s="14" t="s">
+      <c r="R32" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="S32" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="T32" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="U32" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="V32" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="W32" s="13" t="s">
+      <c r="S32" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="T32" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="U32" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="V32" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="W32" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="X32" s="13" t="s">
+      <c r="X32" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="Y32" s="13" t="s">
+      <c r="Y32" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="Z32" s="13" t="s">
+      <c r="Z32" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="AA32" s="13" t="s">
+      <c r="AA32" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="AB32" s="13" t="s">
+      <c r="AB32" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="AC32" s="17" t="s">
+      <c r="AC32" s="15" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="33" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B33" s="11"/>
-      <c r="C33" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="D33" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="E33" s="15" t="s">
+      <c r="B33" s="25"/>
+      <c r="C33" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E33" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="F33" s="13" t="s">
+      <c r="F33" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="G33" s="13" t="s">
+      <c r="G33" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="H33" s="13" t="s">
+      <c r="H33" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="I33" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="J33" s="15" t="s">
+      <c r="I33" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="J33" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="K33" s="15" t="s">
+      <c r="K33" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="L33" s="18" t="s">
+      <c r="L33" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="M33" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="N33" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="O33" s="13" t="s">
+      <c r="M33" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="N33" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="O33" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="P33" s="14" t="s">
+      <c r="P33" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="Q33" s="14" t="s">
+      <c r="Q33" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="R33" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="S33" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="T33" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="U33" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="V33" s="15" t="s">
+      <c r="R33" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="S33" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="T33" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="U33" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="V33" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="W33" s="15" t="s">
+      <c r="W33" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="X33" s="13" t="s">
+      <c r="X33" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="Y33" s="13" t="s">
+      <c r="Y33" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="Z33" s="15" t="s">
+      <c r="Z33" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="AA33" s="13" t="s">
+      <c r="AA33" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="AB33" s="13" t="s">
+      <c r="AB33" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="AC33" s="26" t="s">
+      <c r="AC33" s="23" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="34" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B34" s="11"/>
-      <c r="C34" s="16" t="s">
+      <c r="B34" s="25"/>
+      <c r="C34" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D34" s="13" t="s">
+      <c r="D34" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E34" s="13" t="s">
+      <c r="E34" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F34" s="13" t="s">
+      <c r="F34" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="G34" s="13" t="s">
+      <c r="G34" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="H34" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="I34" s="13" t="s">
+      <c r="H34" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="I34" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="J34" s="13" t="s">
+      <c r="J34" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="K34" s="14" t="s">
+      <c r="K34" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="L34" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="M34" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="N34" s="13" t="s">
+      <c r="L34" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="M34" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="N34" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="O34" s="14" t="s">
+      <c r="O34" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="P34" s="14" t="s">
+      <c r="P34" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="Q34" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="R34" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="S34" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="T34" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="U34" s="13" t="s">
+      <c r="Q34" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="R34" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="S34" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="T34" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="U34" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="V34" s="13" t="s">
+      <c r="V34" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="W34" s="13" t="s">
+      <c r="W34" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="X34" s="13" t="s">
+      <c r="X34" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="Y34" s="13" t="s">
+      <c r="Y34" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="Z34" s="13" t="s">
+      <c r="Z34" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="AA34" s="13" t="s">
+      <c r="AA34" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="AB34" s="13" t="s">
+      <c r="AB34" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="AC34" s="17" t="s">
+      <c r="AC34" s="15" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="35" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B35" s="11"/>
-      <c r="C35" s="16" t="s">
+      <c r="B35" s="25"/>
+      <c r="C35" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D35" s="13" t="s">
+      <c r="D35" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="E35" s="13" t="s">
+      <c r="E35" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="F35" s="13" t="s">
+      <c r="F35" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="G35" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="H35" s="13" t="s">
+      <c r="G35" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="H35" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="I35" s="13" t="s">
+      <c r="I35" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="J35" s="14" t="s">
+      <c r="J35" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="K35" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="L35" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="M35" s="13" t="s">
+      <c r="K35" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="L35" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="M35" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="N35" s="14" t="s">
+      <c r="N35" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="O35" s="14" t="s">
+      <c r="O35" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="P35" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q35" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="R35" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="S35" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="T35" s="13" t="s">
+      <c r="P35" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q35" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="R35" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="S35" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="T35" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="U35" s="13" t="s">
+      <c r="U35" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="V35" s="13" t="s">
+      <c r="V35" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="W35" s="13" t="s">
+      <c r="W35" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="X35" s="13" t="s">
+      <c r="X35" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="Y35" s="13" t="s">
+      <c r="Y35" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="Z35" s="13" t="s">
+      <c r="Z35" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="AA35" s="13" t="s">
+      <c r="AA35" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="AB35" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="AC35" s="17" t="s">
+      <c r="AB35" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC35" s="15" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="36" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B36" s="11"/>
-      <c r="C36" s="16" t="s">
+      <c r="B36" s="25"/>
+      <c r="C36" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="D36" s="13" t="s">
+      <c r="D36" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E36" s="13" t="s">
+      <c r="E36" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="F36" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="G36" s="13" t="s">
+      <c r="F36" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G36" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="H36" s="13" t="s">
+      <c r="H36" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="I36" s="14" t="s">
+      <c r="I36" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="J36" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="K36" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="L36" s="13" t="s">
+      <c r="J36" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="K36" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="L36" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="M36" s="14" t="s">
+      <c r="M36" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="N36" s="14" t="s">
+      <c r="N36" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="O36" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="P36" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q36" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="R36" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="S36" s="13" t="s">
+      <c r="O36" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="P36" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q36" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="R36" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="S36" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="T36" s="13" t="s">
+      <c r="T36" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="U36" s="13" t="s">
+      <c r="U36" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="V36" s="13" t="s">
+      <c r="V36" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="W36" s="13" t="s">
+      <c r="W36" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="X36" s="13" t="s">
+      <c r="X36" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="Y36" s="13" t="s">
+      <c r="Y36" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="Z36" s="13" t="s">
+      <c r="Z36" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="AA36" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="AB36" s="13" t="s">
+      <c r="AA36" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB36" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="AC36" s="17" t="s">
+      <c r="AC36" s="15" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="37" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B37" s="11"/>
-      <c r="C37" s="16" t="s">
+      <c r="B37" s="25"/>
+      <c r="C37" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="D37" s="13" t="s">
+      <c r="D37" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E37" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="F37" s="13" t="s">
+      <c r="E37" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F37" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="G37" s="13" t="s">
+      <c r="G37" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="H37" s="14" t="s">
+      <c r="H37" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="I37" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="J37" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="K37" s="13" t="s">
+      <c r="I37" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="J37" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="K37" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="L37" s="14" t="s">
+      <c r="L37" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="M37" s="14" t="s">
+      <c r="M37" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="N37" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="O37" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="P37" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q37" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="R37" s="13" t="s">
+      <c r="N37" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="O37" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="P37" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q37" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="R37" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="S37" s="13" t="s">
+      <c r="S37" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="T37" s="13" t="s">
+      <c r="T37" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="U37" s="13" t="s">
+      <c r="U37" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="V37" s="13" t="s">
+      <c r="V37" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="W37" s="13" t="s">
+      <c r="W37" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="X37" s="13" t="s">
+      <c r="X37" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="Y37" s="13" t="s">
+      <c r="Y37" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="Z37" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="AA37" s="13" t="s">
+      <c r="Z37" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA37" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="AB37" s="13" t="s">
+      <c r="AB37" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="AC37" s="17" t="s">
+      <c r="AC37" s="15" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="38" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B38" s="11"/>
-      <c r="C38" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="D38" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E38" s="13" t="s">
+      <c r="B38" s="25"/>
+      <c r="C38" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D38" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E38" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="F38" s="13" t="s">
+      <c r="F38" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="G38" s="14" t="s">
+      <c r="G38" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="H38" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="I38" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="J38" s="13" t="s">
+      <c r="H38" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="I38" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="J38" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="K38" s="14" t="s">
+      <c r="K38" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="L38" s="14" t="s">
+      <c r="L38" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="M38" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="N38" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="O38" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="P38" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q38" s="13" t="s">
+      <c r="M38" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="N38" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="O38" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="P38" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q38" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="R38" s="13" t="s">
+      <c r="R38" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="S38" s="13" t="s">
+      <c r="S38" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="T38" s="13" t="s">
+      <c r="T38" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="U38" s="13" t="s">
+      <c r="U38" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="V38" s="13" t="s">
+      <c r="V38" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="W38" s="13" t="s">
+      <c r="W38" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="X38" s="13" t="s">
+      <c r="X38" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="Y38" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="Z38" s="13" t="s">
+      <c r="Y38" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z38" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="AA38" s="13" t="s">
+      <c r="AA38" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="AB38" s="13" t="s">
+      <c r="AB38" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="AC38" s="17" t="s">
+      <c r="AC38" s="15" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="39" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B39" s="11"/>
-      <c r="C39" s="16" t="s">
+      <c r="B39" s="25"/>
+      <c r="C39" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="D39" s="13" t="s">
+      <c r="D39" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="E39" s="13" t="s">
+      <c r="E39" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="F39" s="14" t="s">
+      <c r="F39" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="G39" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="H39" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="I39" s="13" t="s">
+      <c r="G39" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="H39" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="I39" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="J39" s="14" t="s">
+      <c r="J39" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="K39" s="14" t="s">
+      <c r="K39" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="L39" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="M39" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="N39" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="O39" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="P39" s="13" t="s">
+      <c r="L39" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="M39" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="N39" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="O39" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="P39" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="Q39" s="13" t="s">
+      <c r="Q39" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="R39" s="13" t="s">
+      <c r="R39" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="S39" s="13" t="s">
+      <c r="S39" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="T39" s="13" t="s">
+      <c r="T39" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="U39" s="13" t="s">
+      <c r="U39" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="V39" s="13" t="s">
+      <c r="V39" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="W39" s="13" t="s">
+      <c r="W39" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="X39" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="Y39" s="13" t="s">
+      <c r="X39" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y39" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="Z39" s="13" t="s">
+      <c r="Z39" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="AA39" s="13" t="s">
+      <c r="AA39" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="AB39" s="13" t="s">
+      <c r="AB39" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="AC39" s="17" t="s">
+      <c r="AC39" s="15" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="40" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B40" s="11"/>
-      <c r="C40" s="16" t="s">
+      <c r="B40" s="25"/>
+      <c r="C40" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="D40" s="13" t="s">
+      <c r="D40" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="E40" s="13" t="s">
+      <c r="E40" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="F40" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="G40" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="H40" s="13" t="s">
+      <c r="F40" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="G40" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="H40" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="I40" s="14" t="s">
+      <c r="I40" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="J40" s="14" t="s">
+      <c r="J40" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="K40" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="L40" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="M40" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="N40" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="O40" s="13" t="s">
+      <c r="K40" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="L40" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="M40" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="N40" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="O40" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="P40" s="13" t="s">
+      <c r="P40" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="Q40" s="13" t="s">
+      <c r="Q40" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="R40" s="13" t="s">
+      <c r="R40" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="S40" s="13" t="s">
+      <c r="S40" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="T40" s="13" t="s">
+      <c r="T40" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="U40" s="13" t="s">
+      <c r="U40" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="V40" s="13" t="s">
+      <c r="V40" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="W40" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="X40" s="13" t="s">
+      <c r="W40" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="X40" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="Y40" s="13" t="s">
+      <c r="Y40" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Z40" s="13" t="s">
+      <c r="Z40" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="AA40" s="13" t="s">
+      <c r="AA40" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="AB40" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="AC40" s="17" t="s">
+      <c r="AB40" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC40" s="15" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="41" spans="2:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="11"/>
-      <c r="C41" s="19" t="s">
+      <c r="B41" s="25"/>
+      <c r="C41" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="D41" s="13" t="s">
+      <c r="D41" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E41" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="F41" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="G41" s="13" t="s">
+      <c r="E41" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="F41" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="G41" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="H41" s="14" t="s">
+      <c r="H41" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="I41" s="14" t="s">
+      <c r="I41" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="J41" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="K41" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="L41" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="M41" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="N41" s="13" t="s">
+      <c r="J41" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="K41" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="L41" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="M41" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="N41" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="O41" s="13" t="s">
+      <c r="O41" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="P41" s="13" t="s">
+      <c r="P41" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="Q41" s="13" t="s">
+      <c r="Q41" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="R41" s="13" t="s">
+      <c r="R41" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="S41" s="13" t="s">
+      <c r="S41" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="T41" s="13" t="s">
+      <c r="T41" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="U41" s="13" t="s">
+      <c r="U41" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="V41" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="W41" s="13" t="s">
+      <c r="V41" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="W41" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="X41" s="13" t="s">
+      <c r="X41" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Y41" s="13" t="s">
+      <c r="Y41" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="Z41" s="13" t="s">
+      <c r="Z41" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="AA41" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="AB41" s="13" t="s">
+      <c r="AA41" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB41" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="AC41" s="13" t="s">
+      <c r="AC41" s="11" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="42" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
-      <c r="D42" s="20" t="s">
+      <c r="D42" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="E42" s="20"/>
-      <c r="F42" s="20"/>
-      <c r="G42" s="20"/>
-      <c r="H42" s="20"/>
-      <c r="I42" s="20"/>
-      <c r="J42" s="20"/>
-      <c r="K42" s="20"/>
-      <c r="L42" s="20"/>
-      <c r="M42" s="20"/>
-      <c r="N42" s="20"/>
-      <c r="O42" s="20"/>
-      <c r="P42" s="20"/>
-      <c r="Q42" s="20"/>
-      <c r="R42" s="20"/>
-      <c r="S42" s="20"/>
-      <c r="T42" s="20"/>
-      <c r="U42" s="20"/>
-      <c r="V42" s="20"/>
-      <c r="W42" s="20"/>
-      <c r="X42" s="20"/>
-      <c r="Y42" s="20"/>
-      <c r="Z42" s="20"/>
-      <c r="AA42" s="20"/>
-      <c r="AB42" s="20"/>
-      <c r="AC42" s="20"/>
+      <c r="E42" s="26"/>
+      <c r="F42" s="26"/>
+      <c r="G42" s="26"/>
+      <c r="H42" s="26"/>
+      <c r="I42" s="26"/>
+      <c r="J42" s="26"/>
+      <c r="K42" s="26"/>
+      <c r="L42" s="26"/>
+      <c r="M42" s="26"/>
+      <c r="N42" s="26"/>
+      <c r="O42" s="26"/>
+      <c r="P42" s="26"/>
+      <c r="Q42" s="26"/>
+      <c r="R42" s="26"/>
+      <c r="S42" s="26"/>
+      <c r="T42" s="26"/>
+      <c r="U42" s="26"/>
+      <c r="V42" s="26"/>
+      <c r="W42" s="26"/>
+      <c r="X42" s="26"/>
+      <c r="Y42" s="26"/>
+      <c r="Z42" s="26"/>
+      <c r="AA42" s="26"/>
+      <c r="AB42" s="26"/>
+      <c r="AC42" s="26"/>
     </row>
     <row r="43" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B43" s="1"/>
@@ -3368,12 +3382,12 @@
       <c r="AC45" s="1"/>
     </row>
     <row r="46" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B46" s="21" t="s">
+      <c r="B46" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="C46" s="21"/>
-      <c r="D46" s="21"/>
-      <c r="E46" s="21"/>
+      <c r="C46" s="18"/>
+      <c r="D46" s="18"/>
+      <c r="E46" s="18"/>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
@@ -3400,11 +3414,11 @@
       <c r="AC46" s="1"/>
     </row>
     <row r="47" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B47" s="21" t="s">
+      <c r="B47" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="C47" s="21"/>
-      <c r="D47" s="21"/>
+      <c r="C47" s="18"/>
+      <c r="D47" s="18"/>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
@@ -3466,208 +3480,208 @@
         <v>36</v>
       </c>
       <c r="C49" s="1"/>
-      <c r="D49" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="E49" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="F49" s="22" t="s">
+      <c r="D49" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E49" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="F49" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="G49" s="22" t="s">
+      <c r="G49" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="H49" s="22" t="s">
+      <c r="H49" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="I49" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="J49" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="K49" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="L49" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="M49" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="N49" s="22" t="s">
+      <c r="I49" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="J49" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="K49" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="L49" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="M49" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="N49" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="O49" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="P49" s="22" t="s">
+      <c r="O49" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="P49" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="Q49" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="R49" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="S49" s="22" t="s">
+      <c r="Q49" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="R49" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="S49" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="T49" s="22" t="s">
+      <c r="T49" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="U49" s="22" t="s">
+      <c r="U49" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="V49" s="22" t="s">
+      <c r="V49" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="W49" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="X49" s="22" t="s">
+      <c r="W49" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="X49" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="Y49" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z49" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA49" s="22" t="s">
+      <c r="Y49" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z49" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA49" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="AB49" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="AC49" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD49" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE49" s="22" t="s">
+      <c r="AB49" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC49" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD49" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE49" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="AF49" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="AG49" s="22" t="s">
+      <c r="AF49" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="AG49" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="AH49" s="22" t="s">
+      <c r="AH49" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="AI49" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="AJ49" s="22" t="s">
+      <c r="AI49" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="AJ49" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="AK49" s="22" t="s">
+      <c r="AK49" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="AL49" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="AM49" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="AN49" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="AO49" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="AP49" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="AQ49" s="22" t="s">
+      <c r="AL49" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="AM49" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="AN49" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="AO49" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="AP49" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="AQ49" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="AR49" s="22" t="s">
+      <c r="AR49" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="AS49" s="22" t="s">
+      <c r="AS49" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="AT49" s="22" t="s">
+      <c r="AT49" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="AU49" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="AV49" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="AW49" s="22" t="s">
+      <c r="AU49" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="AV49" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="AW49" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="AX49" s="22" t="s">
+      <c r="AX49" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="AY49" s="22" t="s">
+      <c r="AY49" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="AZ49" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="BA49" s="22" t="s">
+      <c r="AZ49" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="BA49" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="BB49" s="22" t="s">
+      <c r="BB49" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="BC49" s="22" t="s">
+      <c r="BC49" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="BD49" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="BE49" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="BF49" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="BG49" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="BH49" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="BI49" s="22" t="s">
+      <c r="BD49" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="BE49" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="BF49" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="BG49" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="BH49" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="BI49" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="BJ49" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="BK49" s="22" t="s">
+      <c r="BJ49" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="BK49" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="BL49" s="22" t="s">
+      <c r="BL49" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="BM49" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="BN49" s="22" t="s">
+      <c r="BM49" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="BN49" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="BO49" s="22" t="s">
+      <c r="BO49" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="BP49" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="BQ49" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="BR49" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="BS49" s="22" t="s">
+      <c r="BP49" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="BQ49" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="BR49" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="BS49" s="19" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3676,208 +3690,208 @@
         <v>37</v>
       </c>
       <c r="C50" s="1"/>
-      <c r="D50" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="E50" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="F50" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="G50" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="H50" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="I50" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="J50" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="K50" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="L50" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="M50" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="N50" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="O50" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="P50" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q50" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="R50" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="S50" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="T50" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="U50" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="V50" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="W50" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="X50" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="Y50" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z50" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA50" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="AB50" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="AC50" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD50" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="AE50" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="AF50" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="AG50" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="AH50" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="AI50" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="AJ50" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="AK50" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="AL50" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="AM50" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="AN50" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="AO50" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="AP50" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="AQ50" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="AR50" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="AS50" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="AT50" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="AU50" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="AV50" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="AW50" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="AX50" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="AY50" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="AZ50" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="BA50" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="BB50" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="BC50" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="BD50" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="BE50" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="BF50" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="BG50" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="BH50" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="BI50" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="BJ50" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="BK50" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="BL50" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="BM50" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="BN50" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="BO50" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="BP50" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="BQ50" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="BR50" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="BS50" s="23" t="s">
+      <c r="D50" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="E50" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="F50" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="G50" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="H50" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="I50" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="J50" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="K50" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="L50" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="M50" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="N50" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="O50" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="P50" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q50" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="R50" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="S50" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="T50" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="U50" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="V50" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="W50" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="X50" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y50" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z50" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA50" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB50" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC50" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD50" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE50" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="AF50" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="AG50" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH50" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="AI50" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="AJ50" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="AK50" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL50" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="AM50" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="AN50" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="AO50" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="AP50" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="AQ50" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="AR50" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="AS50" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="AT50" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="AU50" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="AV50" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="AW50" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="AX50" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="AY50" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="AZ50" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="BA50" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="BB50" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="BC50" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="BD50" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="BE50" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="BF50" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="BG50" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="BH50" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="BI50" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="BJ50" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="BK50" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="BL50" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="BM50" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="BN50" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="BO50" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="BP50" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="BQ50" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="BR50" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="BS50" s="20" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3886,208 +3900,208 @@
         <v>38</v>
       </c>
       <c r="C51" s="1"/>
-      <c r="D51" s="24" t="s">
+      <c r="D51" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="E51" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="F51" s="24" t="s">
+      <c r="E51" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="F51" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="G51" s="24" t="s">
+      <c r="G51" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="H51" s="24" t="s">
+      <c r="H51" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="I51" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="J51" s="24" t="s">
+      <c r="I51" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="J51" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="K51" s="24" t="s">
+      <c r="K51" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="L51" s="24" t="s">
+      <c r="L51" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="M51" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="N51" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="O51" s="24" t="s">
+      <c r="M51" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="N51" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="O51" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="P51" s="24" t="s">
+      <c r="P51" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="Q51" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="R51" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="S51" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="T51" s="24" t="s">
+      <c r="Q51" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="R51" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="S51" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="T51" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="U51" s="24" t="s">
+      <c r="U51" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="V51" s="24" t="s">
+      <c r="V51" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="W51" s="24" t="s">
+      <c r="W51" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="X51" s="24" t="s">
+      <c r="X51" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="Y51" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z51" s="24" t="s">
+      <c r="Y51" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z51" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="AA51" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB51" s="24" t="s">
+      <c r="AA51" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB51" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="AC51" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD51" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="AE51" s="24" t="s">
+      <c r="AC51" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD51" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE51" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="AF51" s="24" t="s">
+      <c r="AF51" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="AG51" s="24" t="s">
+      <c r="AG51" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="AH51" s="24" t="s">
+      <c r="AH51" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="AI51" s="24" t="s">
+      <c r="AI51" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="AJ51" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="AK51" s="24" t="s">
+      <c r="AJ51" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK51" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="AL51" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="AM51" s="24" t="s">
+      <c r="AL51" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM51" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="AN51" s="24" t="s">
+      <c r="AN51" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="AO51" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="AP51" s="24" t="s">
+      <c r="AO51" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="AP51" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="AQ51" s="24" t="s">
+      <c r="AQ51" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="AR51" s="24" t="s">
+      <c r="AR51" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="AS51" s="24" t="s">
+      <c r="AS51" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="AT51" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="AU51" s="24" t="s">
+      <c r="AT51" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="AU51" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="AV51" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="AW51" s="24" t="s">
+      <c r="AV51" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="AW51" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="AX51" s="24" t="s">
+      <c r="AX51" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="AY51" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="AZ51" s="24" t="s">
+      <c r="AY51" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="AZ51" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="BA51" s="24" t="s">
+      <c r="BA51" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="BB51" s="24" t="s">
+      <c r="BB51" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="BC51" s="24" t="s">
+      <c r="BC51" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="BD51" s="24" t="s">
+      <c r="BD51" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="BE51" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="BF51" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="BG51" s="24" t="s">
+      <c r="BE51" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="BF51" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="BG51" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="BH51" s="24" t="s">
+      <c r="BH51" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="BI51" s="24" t="s">
+      <c r="BI51" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="BJ51" s="24" t="s">
+      <c r="BJ51" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="BK51" s="24" t="s">
+      <c r="BK51" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="BL51" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="BM51" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="BN51" s="24" t="s">
+      <c r="BL51" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="BM51" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="BN51" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="BO51" s="24" t="s">
+      <c r="BO51" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="BP51" s="24" t="s">
+      <c r="BP51" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="BQ51" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="BR51" s="24" t="s">
+      <c r="BQ51" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="BR51" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="BS51" s="24" t="s">
+      <c r="BS51" s="21" t="s">
         <v>14</v>
       </c>
     </row>
@@ -4109,12 +4123,868 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B1:BS15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="2:71" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="2:71" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="2:71" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="2:71" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="J4" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="L4" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="M4" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="N4" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="O4" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="P4" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q4" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="R4" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="S4" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="T4" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="U4" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="V4" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="W4" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="X4" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y4" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z4" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA4" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC4" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD4" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE4" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF4" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="AG4" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="AH4" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="AI4" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="AJ4" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK4" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="AL4" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM4" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="AN4" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="AO4" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="AP4" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="AQ4" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="AR4" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="AS4" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="AT4" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="AU4" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="AV4" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="AW4" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="AX4" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="AY4" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="AZ4" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="BA4" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="BB4" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="BC4" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="BD4" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="BE4" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="BF4" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="BG4" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="BH4" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="BI4" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="BJ4" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="BK4" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="BL4" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="BM4" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="BN4" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="BO4" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="BP4" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="BQ4" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="BR4" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="BS4" s="21" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="2:71" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="F5" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="J5" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="K5" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="L5" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="M5" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="N5" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="O5" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="P5" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q5" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="R5" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="S5" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="T5" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="U5" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="V5" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="W5" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="X5" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y5" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA5" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB5" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC5" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE5" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="AF5" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="AG5" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH5" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="AI5" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="AJ5" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="AK5" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL5" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="AM5" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="AN5" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="AO5" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="AP5" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="AQ5" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="AR5" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="AS5" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="AT5" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="AU5" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="AV5" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="AW5" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="AX5" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="AY5" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="AZ5" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="BA5" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="BB5" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="BC5" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="BD5" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="BE5" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="BF5" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="BG5" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="BH5" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="BI5" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="BJ5" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="BK5" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="BL5" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="BM5" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="BN5" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="BO5" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="BP5" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="BQ5" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="BR5" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="BS5" s="20" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="2:71" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="J6" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="K6" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="L6" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="M6" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="N6" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="O6" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="P6" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q6" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="R6" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="S6" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="T6" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="U6" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="V6" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="W6" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="X6" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y6" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z6" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA6" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB6" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC6" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD6" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE6" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF6" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="AG6" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="AH6" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="AI6" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="AJ6" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="AK6" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="AL6" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="AM6" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="AN6" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="AO6" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="AP6" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="AQ6" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="AR6" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="AS6" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="AT6" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="AU6" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="AV6" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="AW6" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="AX6" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="AY6" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="AZ6" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="BA6" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="BB6" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="BC6" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="BD6" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="BE6" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="BF6" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="BG6" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="BH6" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="BI6" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="BJ6" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="BK6" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="BL6" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="BM6" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="BN6" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="BO6" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="BP6" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="BQ6" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="BR6" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="BS6" s="19" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="2:71" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="2:71" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="2:71" x14ac:dyDescent="0.25">
+      <c r="B11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
+      <c r="U11" s="1"/>
+      <c r="V11" s="1"/>
+      <c r="W11" s="1"/>
+      <c r="X11" s="1"/>
+      <c r="Y11" s="1"/>
+      <c r="Z11" s="1"/>
+      <c r="AA11" s="1"/>
+    </row>
+    <row r="12" spans="2:71" x14ac:dyDescent="0.25">
+      <c r="B12" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="O12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="P12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="R12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="S12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="T12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="U12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="V12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="W12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="X12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA12" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="2:71" x14ac:dyDescent="0.25">
+      <c r="B13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="R13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="S13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="T13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="U13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="V13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="W13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="X13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA13" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="2:71" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
